--- a/input/data/Data Model_V1 (1).xlsx
+++ b/input/data/Data Model_V1 (1).xlsx
@@ -1,42 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8b2c20da00463e3b/Desktop/PE-Realtors/Website-PE-Realtors/.com/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\xampp\MARS\pe_realtors\input\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="8_{CAC37B97-E7D1-4887-B5F9-F163C86FE7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B83E9395-A8F5-4C43-B884-88CEE0B73785}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1E4EE4C3-FA13-436E-8C1F-8F530AEDBA41}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Fields and List of Values" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="264">
   <si>
     <t>Property ID</t>
   </si>
@@ -74,9 +62,6 @@
     <t>New Projects</t>
   </si>
   <si>
-    <t>Residential Type</t>
-  </si>
-  <si>
     <t>Flat</t>
   </si>
   <si>
@@ -86,9 +71,6 @@
     <t>Independent House</t>
   </si>
   <si>
-    <t>Door Facing</t>
-  </si>
-  <si>
     <t>North</t>
   </si>
   <si>
@@ -101,9 +83,6 @@
     <t>West</t>
   </si>
   <si>
-    <t>Any Facing</t>
-  </si>
-  <si>
     <t>Built up Area</t>
   </si>
   <si>
@@ -825,13 +804,25 @@
   </si>
   <si>
     <t>In Acers</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>Property Sub Type</t>
+  </si>
+  <si>
+    <t>facing_type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -867,8 +858,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -878,6 +877,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,7 +914,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -920,6 +925,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1257,111 +1264,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28CE9CB2-5A60-40DE-8600-2E8C4264FEF1}">
-  <dimension ref="A1:U194"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" customWidth="1"/>
-    <col min="6" max="6" width="64.85546875" customWidth="1"/>
-    <col min="7" max="8" width="25.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="64.875" customWidth="1"/>
+    <col min="7" max="7" width="53.125" customWidth="1"/>
+    <col min="8" max="8" width="25.75" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="47.25" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
     <col min="18" max="18" width="19" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.5703125" customWidth="1"/>
-    <col min="20" max="20" width="13.85546875" customWidth="1"/>
+    <col min="19" max="19" width="17.5" customWidth="1"/>
+    <col min="20" max="20" width="13.875" customWidth="1"/>
     <col min="21" max="21" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="4" customFormat="1" ht="15">
       <c r="A1" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="O1" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>260</v>
-      </c>
       <c r="S1" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="13.5" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
@@ -1373,1183 +1381,1230 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>263</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
       </c>
       <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
       <c r="K3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15">
       <c r="A4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>261</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="C5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="C6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
       </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
       <c r="H6" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="C7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
       <c r="H7" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="L7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A8" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>260</v>
+      </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
       <c r="H8" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Q8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15" thickBot="1">
       <c r="C9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
       </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
       <c r="H9" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="C10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
       <c r="H10" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15">
       <c r="C11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
-      <c r="I11" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15">
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="C15" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+    <row r="16" spans="1:21">
+      <c r="C16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+    <row r="20" spans="3:3">
+      <c r="C20" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+    <row r="21" spans="3:3">
+      <c r="C21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+    <row r="22" spans="3:3">
+      <c r="C22" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+    <row r="23" spans="3:3">
+      <c r="C23" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+    <row r="24" spans="3:3">
+      <c r="C24" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+    <row r="25" spans="3:3">
+      <c r="C25" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+    <row r="26" spans="3:3">
+      <c r="C26" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
+    <row r="27" spans="3:3">
+      <c r="C27" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
+    <row r="28" spans="3:3">
+      <c r="C28" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
+    <row r="29" spans="3:3">
+      <c r="C29" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
+    <row r="30" spans="3:3">
+      <c r="C30" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+    <row r="31" spans="3:3">
+      <c r="C31" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
+    <row r="32" spans="3:3">
+      <c r="C32" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
+    <row r="33" spans="3:3">
+      <c r="C33" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
+    <row r="34" spans="3:3">
+      <c r="C34" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
+    <row r="35" spans="3:3">
+      <c r="C35" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
+    <row r="36" spans="3:3">
+      <c r="C36" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
+    <row r="37" spans="3:3">
+      <c r="C37" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
+    <row r="38" spans="3:3">
+      <c r="C38" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
+    <row r="39" spans="3:3">
+      <c r="C39" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
+    <row r="40" spans="3:3">
+      <c r="C40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
+    <row r="41" spans="3:3">
+      <c r="C41" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
+    <row r="42" spans="3:3">
+      <c r="C42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
+    <row r="43" spans="3:3">
+      <c r="C43" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
+    <row r="44" spans="3:3">
+      <c r="C44" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
+    <row r="45" spans="3:3">
+      <c r="C45" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
+    <row r="46" spans="3:3">
+      <c r="C46" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
+    <row r="47" spans="3:3">
+      <c r="C47" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
+    <row r="48" spans="3:3">
+      <c r="C48" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
+    <row r="49" spans="3:3">
+      <c r="C49" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
+    <row r="50" spans="3:3">
+      <c r="C50" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
+    <row r="51" spans="3:3">
+      <c r="C51" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
+    <row r="52" spans="3:3">
+      <c r="C52" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
+    <row r="53" spans="3:3">
+      <c r="C53" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
+    <row r="54" spans="3:3">
+      <c r="C54" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
+    <row r="55" spans="3:3">
+      <c r="C55" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
+    <row r="56" spans="3:3">
+      <c r="C56" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
+    <row r="57" spans="3:3">
+      <c r="C57" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
+    <row r="58" spans="3:3">
+      <c r="C58" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
+    <row r="59" spans="3:3">
+      <c r="C59" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
+    <row r="60" spans="3:3">
+      <c r="C60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
+    <row r="62" spans="3:3">
+      <c r="C62" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
+    <row r="63" spans="3:3">
+      <c r="C63" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
+    <row r="64" spans="3:3">
+      <c r="C64" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C62" t="s">
+    <row r="65" spans="3:3">
+      <c r="C65" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
+    <row r="66" spans="3:3">
+      <c r="C66" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
+    <row r="67" spans="3:3">
+      <c r="C67" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
+    <row r="68" spans="3:3">
+      <c r="C68" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
+    <row r="69" spans="3:3">
+      <c r="C69" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
+    <row r="70" spans="3:3">
+      <c r="C70" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
+    <row r="71" spans="3:3">
+      <c r="C71" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C69" t="s">
+    <row r="72" spans="3:3">
+      <c r="C72" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C70" t="s">
+    <row r="73" spans="3:3">
+      <c r="C73" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
+    <row r="75" spans="3:3">
+      <c r="C75" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
+    <row r="76" spans="3:3">
+      <c r="C76" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C74" t="s">
+    <row r="77" spans="3:3">
+      <c r="C77" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C75" t="s">
+    <row r="78" spans="3:3">
+      <c r="C78" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C76" t="s">
+    <row r="79" spans="3:3">
+      <c r="C79" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C77" t="s">
+    <row r="80" spans="3:3">
+      <c r="C80" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C78" t="s">
+    <row r="81" spans="3:3">
+      <c r="C81" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C79" t="s">
+    <row r="82" spans="3:3">
+      <c r="C82" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C80" t="s">
+    <row r="83" spans="3:3">
+      <c r="C83" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C81" t="s">
+    <row r="84" spans="3:3">
+      <c r="C84" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C82" t="s">
+    <row r="85" spans="3:3">
+      <c r="C85" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C83" t="s">
+    <row r="86" spans="3:3">
+      <c r="C86" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C84" t="s">
+    <row r="87" spans="3:3">
+      <c r="C87" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C85" t="s">
+    <row r="88" spans="3:3">
+      <c r="C88" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C86" t="s">
+    <row r="89" spans="3:3">
+      <c r="C89" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C87" t="s">
+    <row r="90" spans="3:3">
+      <c r="C90" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C88" t="s">
+    <row r="91" spans="3:3">
+      <c r="C91" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C89" t="s">
+    <row r="92" spans="3:3">
+      <c r="C92" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C90" t="s">
+    <row r="93" spans="3:3">
+      <c r="C93" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C91" t="s">
+    <row r="94" spans="3:3">
+      <c r="C94" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C92" t="s">
+    <row r="95" spans="3:3">
+      <c r="C95" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C93" t="s">
+    <row r="96" spans="3:3">
+      <c r="C96" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C94" t="s">
+    <row r="97" spans="3:3">
+      <c r="C97" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C95" t="s">
+    <row r="98" spans="3:3">
+      <c r="C98" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C96" t="s">
+    <row r="99" spans="3:3">
+      <c r="C99" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C97" t="s">
+    <row r="100" spans="3:3">
+      <c r="C100" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C98" t="s">
+    <row r="101" spans="3:3">
+      <c r="C101" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C99" t="s">
+    <row r="102" spans="3:3">
+      <c r="C102" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C100" t="s">
+    <row r="103" spans="3:3">
+      <c r="C103" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C101" t="s">
+    <row r="104" spans="3:3">
+      <c r="C104" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C102" t="s">
+    <row r="105" spans="3:3">
+      <c r="C105" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C103" t="s">
+    <row r="106" spans="3:3">
+      <c r="C106" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C104" t="s">
+    <row r="107" spans="3:3">
+      <c r="C107" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C105" t="s">
+    <row r="108" spans="3:3">
+      <c r="C108" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C106" t="s">
+    <row r="109" spans="3:3">
+      <c r="C109" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C107" t="s">
+    <row r="110" spans="3:3">
+      <c r="C110" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C108" t="s">
+    <row r="111" spans="3:3">
+      <c r="C111" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C109" t="s">
+    <row r="112" spans="3:3">
+      <c r="C112" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C110" t="s">
+    <row r="113" spans="3:3">
+      <c r="C113" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C111" t="s">
+    <row r="114" spans="3:3">
+      <c r="C114" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C112" t="s">
+    <row r="115" spans="3:3">
+      <c r="C115" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C113" t="s">
+    <row r="116" spans="3:3">
+      <c r="C116" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C114" t="s">
+    <row r="117" spans="3:3">
+      <c r="C117" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C115" t="s">
+    <row r="118" spans="3:3">
+      <c r="C118" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C116" t="s">
+    <row r="119" spans="3:3">
+      <c r="C119" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C117" t="s">
+    <row r="120" spans="3:3">
+      <c r="C120" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C118" t="s">
+    <row r="121" spans="3:3">
+      <c r="C121" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C119" t="s">
+    <row r="122" spans="3:3">
+      <c r="C122" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C120" t="s">
+    <row r="123" spans="3:3">
+      <c r="C123" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C121" t="s">
+    <row r="124" spans="3:3">
+      <c r="C124" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C122" t="s">
+    <row r="125" spans="3:3">
+      <c r="C125" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C123" t="s">
+    <row r="126" spans="3:3">
+      <c r="C126" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C124" t="s">
+    <row r="127" spans="3:3">
+      <c r="C127" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C125" t="s">
+    <row r="128" spans="3:3">
+      <c r="C128" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C126" t="s">
+    <row r="129" spans="3:3">
+      <c r="C129" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C127" t="s">
+    <row r="130" spans="3:3">
+      <c r="C130" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C128" t="s">
+    <row r="131" spans="3:3">
+      <c r="C131" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C129" t="s">
+    <row r="132" spans="3:3">
+      <c r="C132" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C130" t="s">
+    <row r="133" spans="3:3">
+      <c r="C133" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131" t="s">
+    <row r="134" spans="3:3">
+      <c r="C134" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C132" t="s">
+    <row r="135" spans="3:3">
+      <c r="C135" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C133" t="s">
+    <row r="136" spans="3:3">
+      <c r="C136" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C134" t="s">
+    <row r="137" spans="3:3">
+      <c r="C137" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C135" t="s">
+    <row r="138" spans="3:3">
+      <c r="C138" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C136" t="s">
+    <row r="139" spans="3:3">
+      <c r="C139" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C137" t="s">
+    <row r="140" spans="3:3">
+      <c r="C140" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C138" t="s">
+    <row r="141" spans="3:3">
+      <c r="C141" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C139" t="s">
+    <row r="142" spans="3:3">
+      <c r="C142" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C140" t="s">
+    <row r="143" spans="3:3">
+      <c r="C143" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C141" t="s">
+    <row r="144" spans="3:3">
+      <c r="C144" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C142" t="s">
+    <row r="145" spans="3:3">
+      <c r="C145" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C143" t="s">
+    <row r="146" spans="3:3">
+      <c r="C146" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C144" t="s">
+    <row r="147" spans="3:3">
+      <c r="C147" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C145" t="s">
+    <row r="148" spans="3:3">
+      <c r="C148" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C146" t="s">
+    <row r="149" spans="3:3">
+      <c r="C149" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C147" t="s">
+    <row r="150" spans="3:3">
+      <c r="C150" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C148" t="s">
+    <row r="151" spans="3:3">
+      <c r="C151" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C149" t="s">
+    <row r="152" spans="3:3">
+      <c r="C152" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C150" t="s">
+    <row r="153" spans="3:3">
+      <c r="C153" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C151" t="s">
+    <row r="154" spans="3:3">
+      <c r="C154" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C152" t="s">
+    <row r="155" spans="3:3">
+      <c r="C155" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C153" t="s">
+    <row r="156" spans="3:3">
+      <c r="C156" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C154" t="s">
+    <row r="157" spans="3:3">
+      <c r="C157" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C155" t="s">
+    <row r="158" spans="3:3">
+      <c r="C158" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C156" t="s">
+    <row r="159" spans="3:3">
+      <c r="C159" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C157" t="s">
+    <row r="160" spans="3:3">
+      <c r="C160" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C158" t="s">
+    <row r="161" spans="3:3">
+      <c r="C161" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C159" t="s">
+    <row r="162" spans="3:3">
+      <c r="C162" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C160" t="s">
+    <row r="163" spans="3:3">
+      <c r="C163" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C161" t="s">
+    <row r="164" spans="3:3">
+      <c r="C164" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C162" t="s">
+    <row r="165" spans="3:3">
+      <c r="C165" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C163" t="s">
+    <row r="166" spans="3:3">
+      <c r="C166" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C164" t="s">
+    <row r="167" spans="3:3">
+      <c r="C167" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C165" t="s">
+    <row r="168" spans="3:3">
+      <c r="C168" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C166" t="s">
+    <row r="169" spans="3:3">
+      <c r="C169" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C167" t="s">
+    <row r="170" spans="3:3">
+      <c r="C170" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C168" t="s">
+    <row r="171" spans="3:3">
+      <c r="C171" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C169" t="s">
+    <row r="172" spans="3:3">
+      <c r="C172" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C170" t="s">
+    <row r="173" spans="3:3">
+      <c r="C173" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C171" t="s">
+    <row r="174" spans="3:3">
+      <c r="C174" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C172" t="s">
+    <row r="175" spans="3:3">
+      <c r="C175" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C173" t="s">
+    <row r="176" spans="3:3">
+      <c r="C176" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C174" t="s">
+    <row r="177" spans="3:3">
+      <c r="C177" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C175" t="s">
+    <row r="178" spans="3:3">
+      <c r="C178" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C176" t="s">
+    <row r="179" spans="3:3">
+      <c r="C179" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C177" t="s">
+    <row r="180" spans="3:3">
+      <c r="C180" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C178" t="s">
+    <row r="181" spans="3:3">
+      <c r="C181" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C179" t="s">
+    <row r="182" spans="3:3">
+      <c r="C182" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C180" t="s">
+    <row r="183" spans="3:3">
+      <c r="C183" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C181" t="s">
+    <row r="184" spans="3:3">
+      <c r="C184" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C182" t="s">
+    <row r="185" spans="3:3">
+      <c r="C185" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C183" t="s">
+    <row r="186" spans="3:3">
+      <c r="C186" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C184" t="s">
+    <row r="187" spans="3:3">
+      <c r="C187" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C185" t="s">
+    <row r="188" spans="3:3">
+      <c r="C188" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="189" spans="3:3">
+      <c r="C189" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C186" t="s">
+    <row r="190" spans="3:3">
+      <c r="C190" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" t="s">
+    <row r="191" spans="3:3">
+      <c r="C191" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="192" spans="3:3">
+      <c r="C192" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C188" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C189" t="s">
+    <row r="193" spans="3:3">
+      <c r="C193" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C190" t="s">
+    <row r="194" spans="3:3">
+      <c r="C194" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C191" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C192" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C194" t="s">
-        <v>255</v>
+    <row r="196" spans="3:3" ht="15">
+      <c r="C196" s="6" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/input/data/Data Model_V1 (1).xlsx
+++ b/input/data/Data Model_V1 (1).xlsx
@@ -1268,7 +1268,7 @@
   <dimension ref="A1:U196"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
